--- a/exe/manage.xlsx
+++ b/exe/manage.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\hashiguchi\☆program\141215スマートフォン用説明文の修正\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\newgene19_PC\Desktop\program_mall\exe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="17265"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19290" windowHeight="17265" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="【改修履歴】" sheetId="2" r:id="rId1"/>
+    <sheet name="【工数管理】" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>課題時間管理</t>
     <phoneticPr fontId="1"/>
@@ -81,16 +82,6 @@
     <t>時間(h)</t>
     <rPh sb="0" eb="2">
       <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>■工数管理</t>
-    <rPh sb="1" eb="3">
-      <t>コウスウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -216,6 +207,148 @@
     <rPh sb="77" eb="78">
       <t>デ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■スマートフォン用工数管理：12/13</t>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■画像URL改修工数管理：12/18</t>
+    <rPh sb="1" eb="3">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様確認</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンタイム：◎ 予想時間&gt;時間：○ 予想時間&lt;時間：×</t>
+    <rPh sb="8" eb="10">
+      <t>ヨソウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヨソウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■改修履歴</t>
+    <rPh sb="1" eb="3">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマートフォン用商品説明文作成</t>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象店舗</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テンポ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期限日</t>
+    <rPh sb="0" eb="2">
+      <t>キゲン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像URLを正確に出力する</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -357,7 +490,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -376,6 +509,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -394,14 +536,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -683,10 +822,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E23"/>
+  <dimension ref="B2:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="54" x14ac:dyDescent="0.15">
+      <c r="B5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="16">
+        <v>41991</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:E23"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -697,7 +893,10 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.15">
@@ -711,7 +910,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.15">
@@ -725,7 +924,7 @@
         <v>0.5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.15">
@@ -739,7 +938,7 @@
         <v>0.5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.15">
@@ -753,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.15">
@@ -767,7 +966,7 @@
         <v>0.5</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.15">
@@ -781,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.15">
@@ -795,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.15">
@@ -809,7 +1008,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
@@ -825,75 +1024,251 @@
         <v>9.5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
+      <c r="B20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1">
+        <f>SUM(C29:C35)</f>
+        <v>8.5</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B45" s="9"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="11"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B46" s="9"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B47" s="12"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B15:E17"/>
     <mergeCell ref="B20:E23"/>
+    <mergeCell ref="B39:E41"/>
+    <mergeCell ref="B44:E47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exe/manage.xlsx
+++ b/exe/manage.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>課題時間管理</t>
     <phoneticPr fontId="1"/>
@@ -881,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1157,8 +1157,12 @@
       <c r="C32" s="1">
         <v>1</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="D32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
@@ -1167,8 +1171,12 @@
       <c r="C33" s="1">
         <v>1</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
@@ -1198,7 +1206,10 @@
         <f>SUM(C29:C35)</f>
         <v>8.5</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="1">
+        <f>SUM(D29:D35)</f>
+        <v>2</v>
+      </c>
       <c r="E36" s="1"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.15">

--- a/exe/manage.xlsx
+++ b/exe/manage.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>課題時間管理</t>
     <phoneticPr fontId="1"/>
@@ -349,6 +349,113 @@
   </si>
   <si>
     <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見積もり工数より少し早めに終わりました。
+githubでのバージョン管理がまだあまりわかっていません。
+マージ後のコミットはすべきだと思いますが、リモートにもログにも残らないのはなぜかわからず。。。</t>
+    <rPh sb="0" eb="2">
+      <t>ミツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>簡単な処理であれば、すぐに対応できるようになりました。
+改修の規模感を正確に見積もれるように引き続き、開発を進めていきます。
+またバージョン管理が少し煩雑なので、残すべきログやブランチの管理をもう少しわかりやすくし、そのブランチの意義を明確にして利用しやすくします。</t>
+    <rPh sb="0" eb="2">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カイシュウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キボ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>セイカク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ミツ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ハンザツ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>イギ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>メイカク</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>リヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -509,6 +616,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -535,12 +648,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -853,7 +960,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="54" x14ac:dyDescent="0.15">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C5" t="s">
@@ -861,13 +968,13 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="7">
         <v>41991</v>
       </c>
     </row>
@@ -879,10 +986,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E47"/>
+  <dimension ref="B2:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1036,24 +1143,24 @@
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
@@ -1064,30 +1171,30 @@
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
@@ -1185,8 +1292,12 @@
       <c r="C34" s="1">
         <v>0.5</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
@@ -1195,8 +1306,12 @@
       <c r="C35" s="1">
         <v>4</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="D35" s="1">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B36" s="2" t="s">
@@ -1208,9 +1323,11 @@
       </c>
       <c r="D36" s="1">
         <f>SUM(D29:D35)</f>
-        <v>2</v>
-      </c>
-      <c r="E36" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
@@ -1220,66 +1337,84 @@
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B39" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="8"/>
+    <row r="39" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="13"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="14"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B43" s="3" t="s">
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="16"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B44" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B45" s="9"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="11"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B46" s="9"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="14"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="13"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="13"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B49" s="11"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="13"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B50" s="14"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B15:E17"/>
     <mergeCell ref="B20:E23"/>
-    <mergeCell ref="B39:E41"/>
-    <mergeCell ref="B44:E47"/>
+    <mergeCell ref="B39:E42"/>
+    <mergeCell ref="B45:E50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
